--- a/levels/2/mazeCero.xlsx
+++ b/levels/2/mazeCero.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Player</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Portals</t>
+  </si>
+  <si>
+    <t>Powers</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -177,6 +180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BR32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="BQ21" sqref="BQ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +480,10 @@
     <col min="65" max="65" width="6.42578125" customWidth="1"/>
     <col min="66" max="66" width="5.140625" customWidth="1"/>
     <col min="67" max="68" width="4.42578125" customWidth="1"/>
-    <col min="69" max="69" width="6.28515625" customWidth="1"/>
+    <col min="69" max="70" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -662,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -847,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1031,18 +1037,18 @@
       <c r="BI3" s="6">
         <v>1</v>
       </c>
-      <c r="BK3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="10"/>
-      <c r="BM3" s="10"/>
-      <c r="BO3" s="10" t="s">
+      <c r="BK3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="11"/>
+      <c r="BO3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="BP3" s="10"/>
-      <c r="BQ3" s="10"/>
+      <c r="BP3" s="11"/>
+      <c r="BQ3" s="11"/>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3297,16 +3303,20 @@
       <c r="BI15" s="6">
         <v>1</v>
       </c>
-      <c r="BK15" s="10" t="s">
+      <c r="BK15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BL15" s="10"/>
-      <c r="BO15" s="10" t="s">
+      <c r="BL15" s="11"/>
+      <c r="BN15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BP15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BQ15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR15" s="11"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3496,14 +3506,20 @@
       <c r="BL16" t="s">
         <v>2</v>
       </c>
+      <c r="BN16" t="s">
+        <v>1</v>
+      </c>
       <c r="BO16" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP16" t="s">
         <v>2</v>
       </c>
+      <c r="BQ16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3693,14 +3709,20 @@
       <c r="BL17">
         <v>3</v>
       </c>
+      <c r="BN17">
+        <v>12</v>
+      </c>
       <c r="BO17">
         <v>12</v>
       </c>
-      <c r="BP17">
-        <v>12</v>
+      <c r="BQ17">
+        <v>7</v>
+      </c>
+      <c r="BR17">
+        <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3890,8 +3912,14 @@
       <c r="BL18">
         <v>12</v>
       </c>
+      <c r="BQ18">
+        <v>17</v>
+      </c>
+      <c r="BR18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4081,8 +4109,14 @@
       <c r="BL19">
         <v>12</v>
       </c>
+      <c r="BQ19">
+        <v>17</v>
+      </c>
+      <c r="BR19">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4272,8 +4306,14 @@
       <c r="BL20">
         <v>21</v>
       </c>
+      <c r="BQ20">
+        <v>7</v>
+      </c>
+      <c r="BR20">
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4458,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4643,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4828,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5013,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5198,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5383,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5568,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5753,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5938,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6123,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6308,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -6318,7 +6358,7 @@
     <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BK15:BL15"/>
-    <mergeCell ref="BO15:BP15"/>
+    <mergeCell ref="BQ15:BR15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
